--- a/172/RAW/AXON_172_paw_critical_alarm.xlsx
+++ b/172/RAW/AXON_172_paw_critical_alarm.xlsx
@@ -14,20 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
-  <si>
-    <t>ATTRIBUTE_NAME</t>
-  </si>
-  <si>
-    <t>DATA_TYPE</t>
-  </si>
-  <si>
-    <t>TECHNICAL_NAME</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+  <si>
+    <t>ATTRIBUTE NAME</t>
+  </si>
+  <si>
+    <t>TECHNICAL NAME</t>
   </si>
   <si>
     <t>DEFINITION</t>
   </si>
   <si>
+    <t>DATA TYPE</t>
+  </si>
+  <si>
     <t>BUSINESS LOGIC</t>
   </si>
   <si>
@@ -133,127 +133,112 @@
     <t>VALUE</t>
   </si>
   <si>
-    <t>R_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_SRC_ID</t>
+    <t>COLUMN ACK_TIMESTAMP OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN ACK_TIMESTAMP_UTC OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN ALARM_ID OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN APPLICATION OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN AREA OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN BATCH OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN CYCLE_ID OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN DESCRIPTION OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN FLEXFIELD1 OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN IN_TIMESTAMP OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN IN_TIMESTAMP_UTC OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN NODENAME OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN OUT_TIMESTAMP OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN OUT_TIMESTAMP_UTC OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN PROCESS_CELL OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN R_DEL_LOAD_ID OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN R_DEL_TMSTMP OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN R_FCLTY_CD OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN R_INS_LOAD_ID OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN R_INS_TMSTMP OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN R_RCRD_STS_CD OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN R_UPD_LOAD_ID OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN R_UPD_TMSTMP OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN SEVERITY OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN SIGN_COMMENT OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN SIGN_MEANING OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN SIGN_MEANING_LOCAL OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN SIGN_NODENAME OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN SIGN_USERFULLNAME OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN SIGN_USERNAME OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN SITE OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN TAGNAME OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN UNIT OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN VALUE OF TABLE PAW_CRITICAL_ALARM</t>
   </si>
   <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
     <t>STRING</t>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>COLUMN ACK_TIMESTAMP OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN ACK_TIMESTAMP_UTC OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN ALARM_ID OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN APPLICATION OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN AREA OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN BATCH OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN CYCLE_ID OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN DESCRIPTION OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN FLEXFIELD1 OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN IN_TIMESTAMP OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN IN_TIMESTAMP_UTC OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN NODENAME OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN OUT_TIMESTAMP OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN OUT_TIMESTAMP_UTC OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN PROCESS_CELL OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN R_DEL_LOAD_ID OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN R_DEL_TMSTMP OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN R_FCLTY_CD OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN R_INS_LOAD_ID OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN R_INS_TMSTMP OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN R_RCRD_STS_CD OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN R_UPD_LOAD_ID OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN R_UPD_TMSTMP OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SEVERITY OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_COMMENT OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_MEANING OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_MEANING_LOCAL OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_NODENAME OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_USERFULLNAME OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_USERNAME OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SITE OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN TAGNAME OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN UNIT OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN VALUE OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN R_LOAD_ID OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Raw Layer. This is a Source system identifier in CAVEAU Architecture.</t>
   </si>
 </sst>
 </file>
@@ -611,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,13 +624,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -653,13 +638,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -667,13 +652,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -681,13 +666,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -695,13 +680,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -709,13 +694,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -723,13 +708,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -737,13 +722,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -751,13 +736,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -765,13 +750,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -779,13 +764,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -793,13 +778,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -807,13 +792,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -821,13 +806,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -835,13 +820,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -849,13 +834,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -863,13 +848,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -877,13 +862,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -891,13 +876,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -905,13 +890,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -919,13 +904,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -933,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -947,13 +932,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -961,13 +946,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -975,13 +960,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -989,13 +974,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1003,13 +988,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1017,13 +1002,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1031,13 +1016,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1045,13 +1030,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1059,10 +1044,10 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
         <v>74</v>
@@ -1073,13 +1058,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1087,13 +1072,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1101,41 +1086,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
